--- a/11月份工作记录.xlsx
+++ b/11月份工作记录.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
-    <sheet name="张乃川" sheetId="1" r:id="rId1"/>
+    <sheet name="张乃川&amp;王瑞雪" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -15,15 +15,158 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+  <si>
+    <t>页面</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>注意事项</t>
+  </si>
+  <si>
+    <t>小时</t>
+  </si>
+  <si>
+    <t>库存查询及补货</t>
+  </si>
+  <si>
+    <t>库存查询及补货页面商品补货按钮（当前选中）</t>
+  </si>
+  <si>
+    <t>库存查询及补货页面生成补货单</t>
+  </si>
+  <si>
+    <t>新品补货</t>
+  </si>
+  <si>
+    <t>新品补货查询（多条件）</t>
+  </si>
+  <si>
+    <t>新品补货添加补货数量</t>
+  </si>
+  <si>
+    <t>新品补货生成补货单</t>
+  </si>
+  <si>
+    <t>生成补货单</t>
+  </si>
+  <si>
+    <t>提交补货单</t>
+  </si>
+  <si>
+    <t>添加删除按钮</t>
+  </si>
+  <si>
+    <t>修改补货数量</t>
+  </si>
+  <si>
+    <t>补货单列表</t>
+  </si>
+  <si>
+    <t>查询（多条件）</t>
+  </si>
+  <si>
+    <t>补货单查看</t>
+  </si>
+  <si>
+    <t>补货单详情</t>
+  </si>
+  <si>
+    <t>待提交（状态）</t>
+  </si>
+  <si>
+    <t>待审核（状态）</t>
+  </si>
+  <si>
+    <t>待收货（状态）</t>
+  </si>
+  <si>
+    <t>实际发货是根据采购单采购实际数量为准</t>
+  </si>
+  <si>
+    <t>已入库（状态）</t>
+  </si>
+  <si>
+    <t>有差异的要高亮显示</t>
+  </si>
+  <si>
+    <t>已拒绝（状态）</t>
+  </si>
+  <si>
+    <t>重新下单（copy当前单子）</t>
+  </si>
+  <si>
+    <t>招采审核补货单列表</t>
+  </si>
+  <si>
+    <t>多个tag</t>
+  </si>
+  <si>
+    <t>导出补货单</t>
+  </si>
+  <si>
+    <t>补货单查看，采购单查看</t>
+  </si>
+  <si>
+    <t>招采审核补货单详情</t>
+  </si>
+  <si>
+    <t>供应商选择
+设置值默认供应商（取消当前默认）
+生成采购单
+拒绝补货需求</t>
+  </si>
+  <si>
+    <t>待发货（状态）</t>
+  </si>
+  <si>
+    <t>查看采购单</t>
+  </si>
+  <si>
+    <t>已发货（状态）</t>
+  </si>
+  <si>
+    <t>已到货（状态）</t>
+  </si>
+  <si>
+    <t>拒绝原因</t>
+  </si>
+  <si>
+    <t>采购单列表</t>
+  </si>
+  <si>
+    <t>新增补货单号</t>
+  </si>
+  <si>
+    <t>采购单导出</t>
+  </si>
+  <si>
+    <t>补货单号查询</t>
+  </si>
+  <si>
+    <t>采购单明细</t>
+  </si>
+  <si>
+    <t>商品数量调整</t>
+  </si>
+  <si>
+    <t>调整数量的同时并调整补货单中的实际发货数量</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,23 +176,116 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -61,125 +297,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -192,49 +328,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,140 +512,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -386,11 +522,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -410,28 +576,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,35 +615,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,154 +639,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -981,23 +1138,340 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="63.875" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>11.7</v>
-      </c>
+    <row r="1" ht="21" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" ht="21" customHeight="1" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" ht="21" customHeight="1" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" ht="21" customHeight="1" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" ht="21" customHeight="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" ht="21" customHeight="1" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" ht="21" customHeight="1" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" ht="21" customHeight="1" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" ht="21" customHeight="1" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" ht="21" customHeight="1" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" ht="21" customHeight="1" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" ht="21" customHeight="1" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" ht="21" customHeight="1" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" ht="70" customHeight="1" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" ht="21" customHeight="1" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" ht="21" customHeight="1" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" ht="21" customHeight="1" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" ht="21" customHeight="1" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" ht="21" customHeight="1" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" ht="21" customHeight="1" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" ht="21" customHeight="1" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" ht="21" customHeight="1" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" ht="21" customHeight="1" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/11月份工作记录.xlsx
+++ b/11月份工作记录.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>页面</t>
   </si>
   <si>
-    <t>计划</t>
+    <t>功能</t>
   </si>
   <si>
     <t>注意事项</t>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>调整数量的同时并调整补货单中的实际发货数量</t>
+  </si>
+  <si>
+    <t>总计（小时）</t>
+  </si>
+  <si>
+    <t>总计（天）</t>
   </si>
 </sst>
 </file>
@@ -162,9 +168,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -176,7 +182,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,129 +319,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,61 +334,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,126 +496,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -537,26 +543,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,8 +598,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,22 +654,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,10 +685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,137 +697,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +836,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1138,10 +1190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1174,7 +1226,9 @@
         <v>5</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -1184,7 +1238,9 @@
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:4">
       <c r="A4" s="1" t="s">
@@ -1194,7 +1250,9 @@
         <v>8</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -1204,7 +1262,9 @@
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:4">
       <c r="A6" s="1" t="s">
@@ -1214,7 +1274,9 @@
         <v>10</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:4">
       <c r="A7" s="1" t="s">
@@ -1224,7 +1286,9 @@
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:4">
       <c r="A8" s="1" t="s">
@@ -1234,7 +1298,9 @@
         <v>13</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:4">
       <c r="A9" s="1" t="s">
@@ -1244,7 +1310,9 @@
         <v>14</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="1:4">
       <c r="A10" s="1" t="s">
@@ -1254,7 +1322,9 @@
         <v>16</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:4">
       <c r="A11" s="1" t="s">
@@ -1264,7 +1334,9 @@
         <v>17</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" ht="21" customHeight="1" spans="1:4">
       <c r="A12" s="1" t="s">
@@ -1274,7 +1346,9 @@
         <v>19</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
@@ -1283,7 +1357,9 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:4">
       <c r="A14" s="1" t="s">
@@ -1295,7 +1371,9 @@
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" ht="21" customHeight="1" spans="1:4">
       <c r="A15" s="1" t="s">
@@ -1307,7 +1385,9 @@
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:4">
       <c r="A16" s="1" t="s">
@@ -1319,7 +1399,9 @@
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:4">
       <c r="A17" s="1" t="s">
@@ -1329,7 +1411,9 @@
         <v>16</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="1:4">
       <c r="A18" s="1" t="s">
@@ -1339,7 +1423,9 @@
         <v>28</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" ht="21" customHeight="1" spans="1:4">
       <c r="A19" s="1" t="s">
@@ -1349,7 +1435,9 @@
         <v>29</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" ht="21" customHeight="1" spans="1:4">
       <c r="A20" s="1" t="s">
@@ -1359,7 +1447,9 @@
         <v>30</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" ht="70" customHeight="1" spans="1:4">
       <c r="A21" s="1" t="s">
@@ -1371,7 +1461,9 @@
       <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="1:4">
       <c r="A22" s="1" t="s">
@@ -1383,7 +1475,9 @@
       <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:4">
       <c r="A23" s="1" t="s">
@@ -1395,7 +1489,9 @@
       <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:4">
       <c r="A24" s="1" t="s">
@@ -1407,7 +1503,9 @@
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="1:4">
       <c r="A25" s="1" t="s">
@@ -1419,7 +1517,9 @@
       <c r="C25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:4">
       <c r="A26" s="1" t="s">
@@ -1429,7 +1529,9 @@
         <v>39</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:4">
       <c r="A27" s="1" t="s">
@@ -1439,7 +1541,9 @@
         <v>40</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="1:4">
       <c r="A28" s="1" t="s">
@@ -1449,7 +1553,9 @@
         <v>41</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" ht="21" customHeight="1" spans="1:4">
       <c r="A29" s="1" t="s">
@@ -1459,7 +1565,9 @@
         <v>39</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="1:4">
       <c r="A30" s="1" t="s">
@@ -1471,9 +1579,37 @@
       <c r="C30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="21" customHeight="1" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1">
+        <f>SUM(D2,D3,D4,D5,D6,D7,D8,D10,D9,D11,D12,D13,D14,D15,D16,D17,D18,D19,D20,D21,D22,D23,D24,D25,D26,D27,D28,D29,D30)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" ht="21" customHeight="1" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="1">
+        <f>D31/8</f>
+        <v>12.625</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
